--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_19.08.2024_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731699900.7935174</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731699900.8415773</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699900.7935174.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699900.8415773.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>12.172</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>12.17</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731699900.8896656</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731699901.057601</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699900.8896656.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699901.057601.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>12.176</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>12.174</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731699901.1911001</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731699901.76521</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699901.1911001.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699901.76521.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>12.169</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>12.179</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731699901.917071</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731699902.8714478</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699901.917071.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699902.8714478.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>12.167</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>12.157</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.009999999999999787</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731699902.9379032</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731699903.2614033</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699902.9379032.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699903.2614033.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>12.165</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>12.164</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.0009999999999994458</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731699904.1954334</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731699904.416964</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699904.1954334.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699904.416964.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>12.181</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>12.175</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.005999999999998451</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731699905.1632946</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731699905.2311096</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699905.1632946.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699905.2311096.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>12.183</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>12.178</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.004999999999999005</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731699905.8115656</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731699906.0843613</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699905.8115656.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699906.0843613.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>12.172</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>12.179</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731699906.5195487</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731699906.7234747</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699906.5195487.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699906.7234747.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>12.188</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>12.179</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.009000000000000341</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731699908.111702</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731699908.1981769</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699908.111702.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699908.1981769.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>12.179</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>12.185</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731699909.399096</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731699909.5406117</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699909.399096.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699909.5406117.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>12.171</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>12.182</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731699910.2777877</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731699910.850044</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699910.2777877.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699910.850044.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>12.165</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>12.173</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731699912.1652489</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731699915.1841002</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699912.1652489.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699915.1841002.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>12.156</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>12.14</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.01600000000000001</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731699915.4424763</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731699915.717528</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699915.4424763.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699915.717528.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>12.147</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>12.139</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731699915.8267608</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731699916.7003393</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699915.8267608.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699916.7003393.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>12.146</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>12.152</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.005999999999998451</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1319,44 +1425,50 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731699917.4848163</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731699917.4848163.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731699917.4848163.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>12.142</v>
       </c>
-      <c r="J18" t="n">
-        <v>12.142</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>12.14</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.001999999999998892</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1417,16 +1529,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04300000000000281</v>
+        <v>0.04100000000000392</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002687500000000176</v>
+        <v>0.002562500000000245</v>
       </c>
       <c r="E2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
